--- a/data/trans_camb/P16A08-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Dificultad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>1.286370990098346</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>3.451972877482765</v>
+        <v>3.451972877482764</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8170569132965343</v>
+        <v>-0.6698247140239487</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.345697936424997</v>
+        <v>-1.090710991676404</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8051807746646487</v>
+        <v>0.8435340788196817</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7759137676144674</v>
+        <v>0.6291188628341507</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3952815952016728</v>
+        <v>0.2954753415674832</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.661305247516447</v>
+        <v>1.596111339550311</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4786593228587985</v>
+        <v>0.5453497941220175</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.07619208703259427</v>
+        <v>-0.05769152233148897</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.624889071847112</v>
+        <v>1.942869042586825</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.867243433383483</v>
+        <v>2.752037473449267</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.230043192917041</v>
+        <v>2.159669724431884</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.818759448706407</v>
+        <v>5.783606860236261</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.904322735313141</v>
+        <v>4.669315075792321</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.03448075740292</v>
+        <v>4.119786196645031</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.345506219580753</v>
+        <v>6.342144759013427</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.171646971539822</v>
+        <v>3.161878936429664</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.535098263791228</v>
+        <v>2.635256414452445</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.954945305193205</v>
+        <v>5.352954935906167</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2739267275096742</v>
+        <v>-0.2231386527185865</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4216022648315685</v>
+        <v>-0.3621287176555583</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1770475161026887</v>
+        <v>0.214381880200246</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1505660575122061</v>
+        <v>0.1035918458601416</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.07510274058286165</v>
+        <v>0.04154875585321166</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3234279562090737</v>
+        <v>0.3041931287286954</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1078751650119017</v>
+        <v>0.1377051998038742</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02251393935718</v>
+        <v>-0.02484875163772789</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3897025232684433</v>
+        <v>0.4885706396902655</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.286808312819216</v>
+        <v>2.090586848865217</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.862676801920077</v>
+        <v>1.541829221785558</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.680190500716371</v>
+        <v>4.247558640651621</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.485261093256284</v>
+        <v>1.433052740619702</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.231003828267675</v>
+        <v>1.317015521870265</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.876439113667222</v>
+        <v>1.85891475574438</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.166757555736752</v>
+        <v>1.191438017916444</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9278929612073531</v>
+        <v>0.9851620375480107</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.764901426467427</v>
+        <v>1.928542668809844</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>1.362824100409581</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.334468417758876</v>
+        <v>1.334468417758875</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8401669876237636</v>
+        <v>-0.8395317717456821</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1650266485173193</v>
+        <v>0.0396199668367469</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3322829656322414</v>
+        <v>0.4675169915590889</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.5843374305202477</v>
+        <v>-0.5387698328787393</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.7497495476666334</v>
+        <v>-0.5580167236730459</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.099780294590287</v>
+        <v>-0.9203616692376633</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.08479308227319665</v>
+        <v>-0.2657040823180125</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2175343966548174</v>
+        <v>0.1707026691194009</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2057473631134772</v>
+        <v>0.1341239983077582</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.952079022190321</v>
+        <v>2.10018388552583</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.035752438065008</v>
+        <v>3.06393192580321</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.675892135966932</v>
+        <v>3.92069364465058</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.920302732779265</v>
+        <v>3.107546391322968</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.983483389965988</v>
+        <v>3.00590994031975</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.246672054306248</v>
+        <v>2.332435910328292</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.054373756846138</v>
+        <v>2.022562291456882</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.530900976900032</v>
+        <v>2.534081091129739</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.668831159469793</v>
+        <v>2.454258770961002</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.4730948997681362</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4632514219213176</v>
+        <v>0.4632514219213174</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.346079846653284</v>
+        <v>-0.3389281225468664</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.02147901794669846</v>
+        <v>-0.02458308785771453</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.07334640396291503</v>
+        <v>0.1112909106406412</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1312575036663326</v>
+        <v>-0.1436393012608286</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1661211236129165</v>
+        <v>-0.1512944229386735</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2497437771392479</v>
+        <v>-0.2150962135641844</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03631270626768258</v>
+        <v>-0.08042252151161842</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.04372615139917106</v>
+        <v>0.04228870919435913</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.0398299139598076</v>
+        <v>0.02785737962605781</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.31618700523325</v>
+        <v>1.379815893377504</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.020923903079777</v>
+        <v>2.011792105325874</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.350045986049921</v>
+        <v>2.42535918063891</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.052780014212045</v>
+        <v>1.143883643841744</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.113711010947111</v>
+        <v>1.079534715857771</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8014753795522047</v>
+        <v>0.8630914870406982</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8976050109560418</v>
+        <v>0.844702657492361</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.069785454387734</v>
+        <v>1.094892703523888</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.077663466732239</v>
+        <v>1.062375627106488</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.4985979781441094</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.2019851845625528</v>
+        <v>-0.2019851845625524</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.792808894358758</v>
@@ -1092,7 +1092,7 @@
         <v>1.061053534282635</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.21065607555017</v>
+        <v>0.2106560755501703</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.5490104770183255</v>
+        <v>-0.5141484910793177</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9441619662456583</v>
+        <v>-1.030932691566897</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.739437883175103</v>
+        <v>-1.704580404247676</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.1661626437198088</v>
+        <v>-0.07811217619866438</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.1139972561995092</v>
+        <v>-0.03879189399463597</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.098632840519009</v>
+        <v>-0.9555486279578872</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.266874550836331</v>
+        <v>0.2161550810202189</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.1699756383893859</v>
+        <v>-0.4127079109930187</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.902965325252739</v>
+        <v>-0.9231128913682538</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.705735960656175</v>
+        <v>2.597197121420802</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.166113204939464</v>
+        <v>2.226545053502348</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.603724242182768</v>
+        <v>1.414280598867141</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.655989276691765</v>
+        <v>3.702295206097753</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.660438586470556</v>
+        <v>3.540479990223493</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.258500177510022</v>
+        <v>2.149827767128419</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.657377360047884</v>
+        <v>2.667868377695963</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.333188720205057</v>
+        <v>2.189507417766436</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.304559278025296</v>
+        <v>1.315645944404418</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1841448793484534</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.07459825164131745</v>
+        <v>-0.07459825164131732</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.5824298895653077</v>
@@ -1197,7 +1197,7 @@
         <v>0.3681909988457001</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.07309873476098525</v>
+        <v>0.07309873476098537</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1917899389973545</v>
+        <v>-0.1762005621646387</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3023050123433557</v>
+        <v>-0.3390761873081969</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5007144648011769</v>
+        <v>-0.4927587841694088</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.0439863332711148</v>
+        <v>-0.05248232577280559</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.05906110312465254</v>
+        <v>-0.04038673024346191</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3029596457090946</v>
+        <v>-0.2420990942570071</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08510913555680387</v>
+        <v>0.05547348682577364</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.05494523238030121</v>
+        <v>-0.1150519292644282</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2590087231267678</v>
+        <v>-0.2703382056215004</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.285023780573052</v>
+        <v>1.248072029398007</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.000689023016989</v>
+        <v>1.005396717095618</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8182086731688327</v>
+        <v>0.7448200658991877</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.585671398267876</v>
+        <v>1.507594253889804</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.576385354756225</v>
+        <v>1.491635180015815</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9808861864998786</v>
+        <v>0.9437819431241683</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.139536632076104</v>
+        <v>1.11379096431613</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9687143694951238</v>
+        <v>0.9218772474448416</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5769623301488876</v>
+        <v>0.5977921241983346</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-0.172422107901736</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.09514698237600497</v>
+        <v>0.09514698237600566</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.7522138301708898</v>
@@ -1297,7 +1297,7 @@
         <v>-0.169328206969703</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.2225116231441095</v>
+        <v>-0.2225116231441102</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.7387920502560285</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6498316000984546</v>
+        <v>-0.4084479528991103</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.585585132438903</v>
+        <v>-2.374808620801544</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.968586639737319</v>
+        <v>-2.117418431294703</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.302408641406993</v>
+        <v>-4.288783756652395</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.425226334568211</v>
+        <v>-3.755733262748574</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.091434679125602</v>
+        <v>-3.35377777067361</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.276381703378245</v>
+        <v>-1.184901049363754</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.862303892414588</v>
+        <v>-1.839680930899212</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.836354006152071</v>
+        <v>-1.63642797306191</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.596447306898491</v>
+        <v>4.587159950664549</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.88395642974492</v>
+        <v>1.830869388724238</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.845834028567445</v>
+        <v>1.86471656657174</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.266314469909029</v>
+        <v>2.362219606592651</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.124599941222948</v>
+        <v>2.734919930401577</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.182137867581572</v>
+        <v>2.226491902024636</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.67463904104285</v>
+        <v>2.794722581768668</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.040175527207459</v>
+        <v>1.89110387116893</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.472875757785613</v>
+        <v>1.578368216322735</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.06853380267385338</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.03781872634851413</v>
+        <v>0.03781872634851441</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1393100893740405</v>
@@ -1402,7 +1402,7 @@
         <v>-0.03135960374610012</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.04120917864528825</v>
+        <v>-0.04120917864528837</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1962901686367897</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2743628432790685</v>
+        <v>-0.1898835141387117</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6574272546470101</v>
+        <v>-0.6503134794805842</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5151681599839194</v>
+        <v>-0.5171158995161884</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5818500905142648</v>
+        <v>-0.5770407833036241</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4876610978198745</v>
+        <v>-0.5139262874779993</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4082469033655846</v>
+        <v>-0.424200359165929</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2738182523527832</v>
+        <v>-0.2462776105474185</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3860815316892642</v>
+        <v>-0.4028223519886416</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3615750180238435</v>
+        <v>-0.3266093167391659</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.168479912905635</v>
+        <v>2.95810522801209</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.295906057856068</v>
+        <v>1.370971123102503</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.465534478183162</v>
+        <v>1.307985530879988</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6242472982895876</v>
+        <v>0.6940974363571615</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8203242873029858</v>
+        <v>0.724233690652727</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6442831446786504</v>
+        <v>0.6414838186539987</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9155845904542441</v>
+        <v>0.997599472819766</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7243170536364694</v>
+        <v>0.725053768760477</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5275728906070669</v>
+        <v>0.6078087504821933</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.7002887595341866</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.9885023235779937</v>
+        <v>0.9885023235779944</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.701462848335453</v>
@@ -1520,7 +1520,7 @@
         <v>1.150816667884003</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.09665423504617</v>
+        <v>1.096654235046169</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.07559413787364591</v>
+        <v>0.1591747590098839</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.1308071303135121</v>
+        <v>-0.1468613444333484</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1897838930561188</v>
+        <v>0.1281044307076694</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.7155389383883547</v>
+        <v>0.7082669012658525</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.5608527280268439</v>
+        <v>0.5553000653488541</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2569733255031743</v>
+        <v>0.2941619140821357</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.7197987476293995</v>
+        <v>0.6931304189409025</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.4522061089627868</v>
+        <v>0.5527803670646</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.5014040475682059</v>
+        <v>0.4695510324549853</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.879430095485399</v>
+        <v>1.885470449755537</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.551410562602397</v>
+        <v>1.500249043150671</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.963834538155263</v>
+        <v>1.929871949988903</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.7527317445932</v>
+        <v>2.750888355050781</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.59530772574691</v>
+        <v>2.543036005171138</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.129915986061396</v>
+        <v>2.101107449616582</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.043137928836841</v>
+        <v>2.033042875511046</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.750818669618033</v>
+        <v>1.785519052991111</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.788689834460605</v>
+        <v>1.744227833468525</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.2923641900738391</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.4126907326218188</v>
+        <v>0.4126907326218191</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.4477115943850433</v>
@@ -1616,7 +1616,7 @@
         <v>0.4123463052549995</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3093411666815183</v>
+        <v>0.3093411666815181</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.4388547783160393</v>
@@ -1625,7 +1625,7 @@
         <v>0.3704008376072899</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3529681647499621</v>
+        <v>0.3529681647499619</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.01565697433175907</v>
+        <v>0.04706501847920649</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.0492229440154734</v>
+        <v>-0.05480671933070608</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.06028377050764769</v>
+        <v>0.04085921801721926</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1682005433647512</v>
+        <v>0.1597878028484175</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1205651308925337</v>
+        <v>0.1218676142468912</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05766167679736497</v>
+        <v>0.06490711475094889</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2096547647363697</v>
+        <v>0.194710979959827</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.132396665572623</v>
+        <v>0.1634929268960657</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1442904672226144</v>
+        <v>0.1384272742441579</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.9148915656412167</v>
+        <v>0.9227576031714314</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7562968340850793</v>
+        <v>0.7484096416285464</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.9655277780957801</v>
+        <v>0.9309685279912451</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.828437970296603</v>
+        <v>0.8056019511566521</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7388003360947601</v>
+        <v>0.7432447057165137</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.655944128619423</v>
+        <v>0.6349488647747128</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7437619473077753</v>
+        <v>0.726627209211761</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6219396267439639</v>
+        <v>0.6272388626716368</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.6477044714783602</v>
+        <v>0.6209384736931374</v>
       </c>
     </row>
     <row r="34">
